--- a/Documentación/To Do - Requisitos_ 5ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 5ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A576F98-B592-440C-896A-C0B30F7CF4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7E62DC-67E8-4986-B7E1-C2FE7F655C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1116,10 +1116,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1128,25 +1137,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,14 +1167,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2205,20 +2205,20 @@
   </sheetPr>
   <dimension ref="A2:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2256,42 +2256,42 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
-        <v>326.2</v>
+        <v>327.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>405.53000000000003</v>
+        <v>408.53000000000003</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="72">
+      <c r="K3" s="69">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="59" t="s">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="72"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2311,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="70" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66">
@@ -2337,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="74"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2358,7 +2358,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="75"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2379,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="73" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="66">
@@ -2404,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="78"/>
+      <c r="J11" s="75"/>
       <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="76" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="66">
@@ -2465,7 +2465,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="65"/>
+      <c r="J14" s="78"/>
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="67" t="s">
+      <c r="J15" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="66">
@@ -2524,7 +2524,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="68"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2542,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="69"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="67" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="66">
@@ -2588,10 +2588,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="71"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="66"/>
     </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2608,10 +2608,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="71"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="66"/>
     </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2646,13 +2646,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-    </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2813,7 +2813,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2973,25 +2973,25 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+    </row>
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3661,14 +3661,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3680,12 +3680,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4645,22 +4645,22 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="60"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="80"/>
-      <c r="C128" s="81"/>
-      <c r="D128" s="81"/>
-      <c r="E128" s="81"/>
-      <c r="F128" s="81"/>
-      <c r="G128" s="81"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4946,22 +4946,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="59" t="s">
+      <c r="B142" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="61"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="80"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="81"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="81"/>
-      <c r="G143" s="81"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -4971,8 +4971,12 @@
         <v>189</v>
       </c>
       <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
+      <c r="E144" s="13">
+        <v>1</v>
+      </c>
+      <c r="F144" s="13">
+        <v>3</v>
+      </c>
       <c r="G144" s="13"/>
       <c r="I144" s="58" t="s">
         <v>188</v>
@@ -5060,6 +5064,14 @@
       <c r="I148" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="J148">
+        <f>F144</f>
+        <v>3</v>
+      </c>
+      <c r="K148">
+        <f>E144</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="52" t="s">
@@ -5165,11 +5177,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B142:G143"/>
-    <mergeCell ref="B127:G128"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
@@ -5177,11 +5189,11 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B142:G143"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5201,13 +5213,13 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5270,7 +5282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5293,7 +5305,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5535,7 +5547,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5558,7 +5570,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5581,7 +5593,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5595,7 +5607,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5616,7 +5628,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5631,7 +5643,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5646,7 +5658,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5667,7 +5679,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5682,7 +5694,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5705,7 +5717,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5720,7 +5732,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5743,7 +5755,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5758,7 +5770,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5773,7 +5785,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5796,7 +5808,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5817,7 +5829,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5838,7 +5850,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5861,7 +5873,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5878,7 +5890,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5893,7 +5905,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5916,7 +5928,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5933,7 +5945,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5948,7 +5960,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5969,7 +5981,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5992,7 +6004,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6015,7 +6027,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6038,7 +6050,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6061,7 +6073,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6082,7 +6094,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6097,7 +6109,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6167,6 +6179,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6375,38 +6404,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6429,9 +6430,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 5ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 5ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7E62DC-67E8-4986-B7E1-C2FE7F655C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED655440-6193-497D-A8BD-CE71F096E96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -653,9 +653,6 @@
     <t>cartas de eleccion</t>
   </si>
   <si>
-    <t>interfaz de ajustes</t>
-  </si>
-  <si>
     <t>Termina bingo de 90 bolas</t>
   </si>
   <si>
@@ -663,6 +660,9 @@
   </si>
   <si>
     <t>Carteles juegos dados + frontal</t>
+  </si>
+  <si>
+    <t>interfaz de ajustes (continuacion)</t>
   </si>
 </sst>
 </file>
@@ -2205,8 +2205,8 @@
   </sheetPr>
   <dimension ref="A2:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K149" sqref="K149"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>408.53000000000003</v>
+        <v>410.03000000000003</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="K9" s="66">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146</f>
-        <v>90.93</v>
+        <v>92.43</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="J146">
         <f>F148+F149+F150+F151</f>
-        <v>0.67</v>
+        <v>2.17</v>
       </c>
       <c r="K146">
         <f>E148+E149+E150+E151</f>
@@ -5060,7 +5060,10 @@
         <v>9</v>
       </c>
       <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
+      <c r="F148" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G148" s="11"/>
       <c r="I148" s="5" t="s">
         <v>12</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>13</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D151" s="15">
         <v>39</v>
@@ -5130,7 +5133,7 @@
         <v>9</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D152" s="13">
         <v>24</v>
@@ -5148,7 +5151,7 @@
         <v>9</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D153" s="13">
         <v>35</v>
@@ -5164,7 +5167,7 @@
         <v>9</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>11</v>

--- a/Documentación/To Do - Requisitos_ 5ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 5ª Version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED655440-6193-497D-A8BD-CE71F096E96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683F670B-8AE1-45A5-8E6D-2E5642F4B8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,19 +1116,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1137,7 +1128,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,23 +1176,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2205,8 +2205,8 @@
   </sheetPr>
   <dimension ref="A2:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J155" activeCellId="1" sqref="F150 J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2260,38 +2260,38 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>410.03000000000003</v>
+        <v>411.53000000000003</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="69">
+      <c r="K3" s="72">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="69"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2311,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="73" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66">
@@ -2337,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="71"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2358,7 +2358,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="72"/>
+      <c r="J8" s="75"/>
       <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2379,12 +2379,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="76" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="66">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146</f>
-        <v>92.43</v>
+        <v>93.93</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2404,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="74"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="75"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="63" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="66">
@@ -2465,7 +2465,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="77"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="78"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="67" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="66">
@@ -2524,7 +2524,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="80"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2542,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="81"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="70" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="66">
@@ -2588,7 +2588,7 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="68"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="68"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2646,11 +2646,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2974,22 +2974,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3661,14 +3661,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3680,12 +3680,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="64"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4645,22 +4645,22 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="60" t="s">
+      <c r="B127" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="61"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+      <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="62"/>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="63"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="81"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="81"/>
+      <c r="F128" s="81"/>
+      <c r="G128" s="81"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4946,22 +4946,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="60" t="s">
+      <c r="B142" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="61"/>
-      <c r="D142" s="61"/>
-      <c r="E142" s="61"/>
-      <c r="F142" s="61"/>
-      <c r="G142" s="61"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="62"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="81"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="J146">
         <f>F148+F149+F150+F151</f>
-        <v>2.17</v>
+        <v>3.67</v>
       </c>
       <c r="K146">
         <f>E148+E149+E150+E151</f>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="E148" s="13"/>
       <c r="F148" s="13">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="G148" s="11"/>
       <c r="I148" s="5" t="s">
@@ -5090,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="F149" s="13">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="G149" s="11"/>
       <c r="I149" s="8" t="s">
@@ -5180,11 +5180,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B142:G143"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
@@ -5192,11 +5192,11 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B142:G143"/>
-    <mergeCell ref="B127:G128"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6182,23 +6182,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6407,10 +6390,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6433,20 +6444,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 5ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 5ª Version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7nume\OneDrive\Documentos\CEU\3- Tercero\Software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683F670B-8AE1-45A5-8E6D-2E5642F4B8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20156B2D-9DFE-4BF2-9139-1B1283F1CA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="200">
   <si>
     <t>Nombre</t>
   </si>
@@ -663,6 +663,9 @@
   </si>
   <si>
     <t>interfaz de ajustes (continuacion)</t>
+  </si>
+  <si>
+    <t>Lógica 1 jugador Póker Texas</t>
   </si>
 </sst>
 </file>
@@ -1116,10 +1119,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1128,25 +1140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,14 +1170,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2203,10 +2206,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P154"/>
+  <dimension ref="A2:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J155" activeCellId="1" sqref="F150 J155"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2256,42 +2259,42 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
-        <v>327.2</v>
+        <v>328.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>411.53000000000003</v>
+        <v>413.03000000000003</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="72">
+      <c r="K3" s="69">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="69"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="72"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2311,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="70" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66">
@@ -2337,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="74"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2358,7 +2361,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="75"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2379,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="73" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="66">
@@ -2404,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2422,7 +2425,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="78"/>
+      <c r="J11" s="75"/>
       <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2442,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="76" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="66">
@@ -2465,7 +2468,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2483,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="65"/>
+      <c r="J14" s="78"/>
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,7 +2504,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="67" t="s">
+      <c r="J15" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="66">
@@ -2524,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="68"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,7 +2545,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="69"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="67" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="66">
@@ -2588,7 +2591,7 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="71"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2608,7 +2611,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="71"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2646,11 +2649,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2974,22 +2977,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3661,14 +3664,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3680,12 +3683,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4645,22 +4648,22 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="60"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="80"/>
-      <c r="C128" s="81"/>
-      <c r="D128" s="81"/>
-      <c r="E128" s="81"/>
-      <c r="F128" s="81"/>
-      <c r="G128" s="81"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4946,22 +4949,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="59" t="s">
+      <c r="B142" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="61"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="80"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="81"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="81"/>
-      <c r="G143" s="81"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -5178,13 +5181,43 @@
       <c r="F154" s="13"/>
       <c r="G154" s="26"/>
     </row>
+    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13">
+        <v>1</v>
+      </c>
+      <c r="F155" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G155" s="11"/>
+    </row>
+    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D156" s="13">
+        <v>15</v>
+      </c>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B142:G143"/>
-    <mergeCell ref="B127:G128"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
@@ -5192,11 +5225,11 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B142:G143"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5212,7 +5245,7 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -6182,6 +6215,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6390,38 +6440,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6444,9 +6466,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 5ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 5ª Version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7nume\OneDrive\Documentos\CEU\3- Tercero\Software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20156B2D-9DFE-4BF2-9139-1B1283F1CA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A548E8-0254-4D15-83BE-7C0937CCF18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1119,19 +1119,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,7 +1131,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,23 +1179,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2209,7 +2209,7 @@
   <dimension ref="A2:P156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2259,42 +2259,42 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
-        <v>328.2</v>
+        <v>330.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>413.03000000000003</v>
+        <v>420.03000000000003</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="69">
+      <c r="K3" s="72">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="69"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2314,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="73" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66">
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="71"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2361,7 +2361,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="72"/>
+      <c r="J8" s="75"/>
       <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="76" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="66">
@@ -2407,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="74"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="75"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="63" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="66">
@@ -2468,7 +2468,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="77"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="78"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="67" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="66">
@@ -2527,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="80"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="81"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="70" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="66">
@@ -2591,7 +2591,7 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="68"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="68"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2649,11 +2649,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2977,22 +2977,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3664,14 +3664,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3683,12 +3683,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="64"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4648,22 +4648,22 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="60" t="s">
+      <c r="B127" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="61"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+      <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="62"/>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="63"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="81"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="81"/>
+      <c r="F128" s="81"/>
+      <c r="G128" s="81"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4949,22 +4949,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="60" t="s">
+      <c r="B142" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="61"/>
-      <c r="D142" s="61"/>
-      <c r="E142" s="61"/>
-      <c r="F142" s="61"/>
-      <c r="G142" s="61"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="62"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="81"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -4999,8 +4999,12 @@
         <v>190</v>
       </c>
       <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
+      <c r="E145" s="13">
+        <v>2</v>
+      </c>
+      <c r="F145" s="13">
+        <v>7</v>
+      </c>
       <c r="G145" s="13"/>
       <c r="I145" s="57" t="s">
         <v>9</v>
@@ -5071,12 +5075,12 @@
         <v>12</v>
       </c>
       <c r="J148">
-        <f>F144</f>
+        <f>F144+F145+F147</f>
+        <v>10</v>
+      </c>
+      <c r="K148">
+        <f>E144+E145+E147</f>
         <v>3</v>
-      </c>
-      <c r="K148">
-        <f>E144</f>
-        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5213,11 +5217,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B142:G143"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
@@ -5225,11 +5229,11 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B142:G143"/>
-    <mergeCell ref="B127:G128"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6215,23 +6219,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6440,10 +6427,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6466,20 +6481,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 5ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 5ª Version.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7nume\OneDrive\Documentos\CEU\3- Tercero\Software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20156B2D-9DFE-4BF2-9139-1B1283F1CA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C32B3C-DCD5-4B78-BCFA-9A0DBA997EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1119,19 +1119,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,7 +1131,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,23 +1179,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2208,8 +2208,8 @@
   </sheetPr>
   <dimension ref="A2:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2263,38 +2263,38 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>413.03000000000003</v>
+        <v>414.53000000000003</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="69">
+      <c r="K3" s="72">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="69"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2314,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="73" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66">
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="71"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2361,7 +2361,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="72"/>
+      <c r="J8" s="75"/>
       <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2382,12 +2382,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="76" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="66">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146</f>
-        <v>93.93</v>
+        <v>95.43</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2407,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="74"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="75"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="63" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="66">
@@ -2468,7 +2468,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="77"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="78"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="67" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="66">
@@ -2527,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="80"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="81"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="70" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="66">
@@ -2591,7 +2591,7 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="68"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="68"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2649,11 +2649,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2977,22 +2977,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3664,14 +3664,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3683,12 +3683,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="64"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4648,22 +4648,22 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="60" t="s">
+      <c r="B127" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="61"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+      <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="62"/>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="63"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="81"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="81"/>
+      <c r="F128" s="81"/>
+      <c r="G128" s="81"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4949,22 +4949,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="60" t="s">
+      <c r="B142" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="61"/>
-      <c r="D142" s="61"/>
-      <c r="E142" s="61"/>
-      <c r="F142" s="61"/>
-      <c r="G142" s="61"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="62"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="81"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="J146">
         <f>F148+F149+F150+F151</f>
-        <v>3.67</v>
+        <v>5.17</v>
       </c>
       <c r="K146">
         <f>E148+E149+E150+E151</f>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="E148" s="13"/>
       <c r="F148" s="13">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="G148" s="11"/>
       <c r="I148" s="5" t="s">
@@ -5093,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="F149" s="13">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="G149" s="11"/>
       <c r="I149" s="8" t="s">
@@ -5213,11 +5213,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B142:G143"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
@@ -5225,11 +5225,11 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B142:G143"/>
-    <mergeCell ref="B127:G128"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6215,23 +6215,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6440,10 +6423,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6466,20 +6477,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 5ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 5ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C32B3C-DCD5-4B78-BCFA-9A0DBA997EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF9CFFE-BC0E-4F4C-AD5D-0571A92D43A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1119,10 +1119,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,25 +1140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,14 +1170,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2208,8 +2208,8 @@
   </sheetPr>
   <dimension ref="A2:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142:G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2259,42 +2259,42 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
-        <v>328.2</v>
+        <v>330.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>414.53000000000003</v>
+        <v>421.53000000000003</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="72">
+      <c r="K3" s="69">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="69"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="72"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2314,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="70" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66">
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="74"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2361,7 +2361,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="75"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="73" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="66">
@@ -2407,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="78"/>
+      <c r="J11" s="75"/>
       <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="76" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="66">
@@ -2468,7 +2468,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="65"/>
+      <c r="J14" s="78"/>
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="67" t="s">
+      <c r="J15" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="66">
@@ -2527,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="68"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="69"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="67" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="66">
@@ -2591,7 +2591,7 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="71"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="71"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2649,11 +2649,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2977,22 +2977,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3664,14 +3664,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3683,12 +3683,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4648,22 +4648,22 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="60"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="80"/>
-      <c r="C128" s="81"/>
-      <c r="D128" s="81"/>
-      <c r="E128" s="81"/>
-      <c r="F128" s="81"/>
-      <c r="G128" s="81"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4803,7 +4803,9 @@
       <c r="C134" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D134" s="13"/>
+      <c r="D134" s="15">
+        <v>29</v>
+      </c>
       <c r="E134" s="13">
         <v>6</v>
       </c>
@@ -4949,22 +4951,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="59" t="s">
+      <c r="B142" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="61"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="80"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="81"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="81"/>
-      <c r="G143" s="81"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -4973,14 +4975,16 @@
       <c r="C144" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D144" s="13"/>
+      <c r="D144" s="15">
+        <v>29</v>
+      </c>
       <c r="E144" s="13">
         <v>1</v>
       </c>
       <c r="F144" s="13">
         <v>3</v>
       </c>
-      <c r="G144" s="13"/>
+      <c r="G144" s="7"/>
       <c r="I144" s="58" t="s">
         <v>188</v>
       </c>
@@ -4998,10 +5002,16 @@
       <c r="C145" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
+      <c r="D145" s="15">
+        <v>45</v>
+      </c>
+      <c r="E145" s="13">
+        <v>2</v>
+      </c>
+      <c r="F145" s="13">
+        <v>7</v>
+      </c>
+      <c r="G145" s="11"/>
       <c r="I145" s="57" t="s">
         <v>9</v>
       </c>
@@ -5071,12 +5081,12 @@
         <v>12</v>
       </c>
       <c r="J148">
-        <f>F144</f>
+        <f>F144+F145+F147</f>
+        <v>10</v>
+      </c>
+      <c r="K148">
+        <f>E144+E145+E147</f>
         <v>3</v>
-      </c>
-      <c r="K148">
-        <f>E144</f>
-        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5213,11 +5223,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B142:G143"/>
-    <mergeCell ref="B127:G128"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
@@ -5225,11 +5235,11 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B142:G143"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5245,8 +5255,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5286,7 +5296,7 @@
       </c>
       <c r="K1" s="2">
         <f>SUM(B2:B1000)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5810,7 +5820,9 @@
       <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="17">
+        <v>1</v>
+      </c>
       <c r="C30" s="16" t="s">
         <v>128</v>
       </c>
@@ -6134,7 +6146,9 @@
       <c r="A46" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="17">
+        <v>1</v>
+      </c>
       <c r="C46" s="16" t="s">
         <v>142</v>
       </c>
@@ -6215,6 +6229,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6423,38 +6454,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6477,9 +6480,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 5ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 5ª Version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF9CFFE-BC0E-4F4C-AD5D-0571A92D43A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDD883B-2C36-4AB1-A23B-063A458C4EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1119,19 +1119,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,7 +1131,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,23 +1179,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2208,7 +2208,7 @@
   </sheetPr>
   <dimension ref="A2:P156"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B142" sqref="B142:G143"/>
     </sheetView>
   </sheetViews>
@@ -2267,34 +2267,34 @@
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="69">
+      <c r="K3" s="72">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="69"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2314,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="73" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66">
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="71"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2361,7 +2361,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="72"/>
+      <c r="J8" s="75"/>
       <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="76" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="66">
@@ -2407,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="74"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="75"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="63" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="66">
@@ -2468,7 +2468,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="77"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="78"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="67" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="66">
@@ -2527,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="80"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="81"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="70" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="66">
@@ -2591,7 +2591,7 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="68"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="68"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -2649,11 +2649,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2977,22 +2977,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3664,14 +3664,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3683,12 +3683,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="64"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4648,22 +4648,22 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="60" t="s">
+      <c r="B127" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="61"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+      <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="62"/>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="63"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="81"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="81"/>
+      <c r="F128" s="81"/>
+      <c r="G128" s="81"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4951,22 +4951,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="60" t="s">
+      <c r="B142" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="61"/>
-      <c r="D142" s="61"/>
-      <c r="E142" s="61"/>
-      <c r="F142" s="61"/>
-      <c r="G142" s="61"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="62"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="81"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -5223,11 +5223,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B142:G143"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
@@ -5235,11 +5235,11 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B142:G143"/>
-    <mergeCell ref="B127:G128"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5255,7 +5255,7 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -6229,23 +6229,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6454,10 +6437,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6480,20 +6491,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 5ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 5ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDD883B-2C36-4AB1-A23B-063A458C4EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4EB3F2-33DA-4FF7-A40A-3F464444A0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1119,10 +1119,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,25 +1140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,14 +1170,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2208,20 +2208,20 @@
   </sheetPr>
   <dimension ref="A2:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142:G143"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.36328125" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.6328125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2263,38 +2263,38 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>421.53000000000003</v>
+        <v>437.03000000000003</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="72">
+      <c r="K3" s="69">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="72"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2314,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="73" t="s">
+      <c r="J6" s="70" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66">
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="74"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2361,7 +2361,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="75"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2382,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="73" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="66">
@@ -2407,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="78"/>
+      <c r="J11" s="75"/>
       <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="76" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="66">
@@ -2468,7 +2468,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="65"/>
+      <c r="J14" s="78"/>
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="67" t="s">
+      <c r="J15" s="79" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="66">
@@ -2527,7 +2527,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="68"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="69"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="70" t="s">
+      <c r="J18" s="67" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="66">
@@ -2591,10 +2591,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="71"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="66"/>
     </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2611,10 +2611,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="71"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="66"/>
     </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2649,13 +2649,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="79" t="s">
+      <c r="J22" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-    </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2816,7 +2816,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -2976,25 +2976,25 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-    </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-    </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3664,14 +3664,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3683,12 +3683,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4648,22 +4648,22 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="60"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="80"/>
-      <c r="C128" s="81"/>
-      <c r="D128" s="81"/>
-      <c r="E128" s="81"/>
-      <c r="F128" s="81"/>
-      <c r="G128" s="81"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="63"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="63"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4951,22 +4951,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="59" t="s">
+      <c r="B142" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="61"/>
+      <c r="F142" s="61"/>
+      <c r="G142" s="61"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="80"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="81"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="81"/>
-      <c r="G143" s="81"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="J145">
         <f>F152+F153+F154</f>
-        <v>3</v>
+        <v>18.5</v>
       </c>
       <c r="K145">
         <f>E152+E153+E154</f>
@@ -5155,7 +5155,7 @@
         <v>20</v>
       </c>
       <c r="F152" s="13">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G152" s="11"/>
     </row>
@@ -5172,8 +5172,10 @@
       <c r="E153" s="13">
         <v>2</v>
       </c>
-      <c r="F153" s="13"/>
-      <c r="G153" s="26"/>
+      <c r="F153" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G153" s="7"/>
     </row>
     <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="54" t="s">
@@ -5223,11 +5225,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B142:G143"/>
-    <mergeCell ref="B127:G128"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
@@ -5235,11 +5237,11 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B142:G143"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5259,13 +5261,13 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5328,7 +5330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5593,7 +5595,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5616,7 +5618,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5639,7 +5641,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5653,7 +5655,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5674,7 +5676,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5689,7 +5691,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5704,7 +5706,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5740,7 +5742,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5778,7 +5780,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5801,7 +5803,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5816,7 +5818,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5833,7 +5835,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5856,7 +5858,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5898,7 +5900,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5938,7 +5940,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5953,7 +5955,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5976,7 +5978,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5993,7 +5995,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6008,7 +6010,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6052,7 +6054,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6075,7 +6077,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6098,7 +6100,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6121,7 +6123,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6142,7 +6144,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6159,7 +6161,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6229,6 +6231,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6437,38 +6456,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6491,9 +6482,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ 5ª Version.xlsx
+++ b/Documentación/To Do - Requisitos_ 5ª Version.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4EB3F2-33DA-4FF7-A40A-3F464444A0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0848881B-EE72-42AD-9AEA-234AEFE0C83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="201">
   <si>
     <t>Nombre</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>Lógica 1 jugador Póker Texas</t>
+  </si>
+  <si>
+    <t>Ayuda perfil toolbar</t>
   </si>
 </sst>
 </file>
@@ -1119,19 +1122,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1140,7 +1134,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,23 +1182,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2206,10 +2209,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P156"/>
+  <dimension ref="A2:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2259,42 +2262,42 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E996)</f>
-        <v>330.2</v>
+        <v>341.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>437.03000000000003</v>
+        <v>453.03000000000003</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="69">
-        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130</f>
-        <v>103</v>
+      <c r="K3" s="72">
+        <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130+J145</f>
+        <v>121.5</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="64"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="69"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2314,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="73" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="66">
@@ -2340,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="71"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2361,7 +2364,7 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="72"/>
+      <c r="J8" s="75"/>
       <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2382,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="76" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="66">
@@ -2407,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="74"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,7 +2428,7 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="75"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2445,12 +2448,12 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="63" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="66">
-        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134</f>
-        <v>62.85</v>
+        <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134+J149</f>
+        <v>78.849999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2468,7 +2471,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="77"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="78"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,7 +2507,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="67" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="66">
@@ -2527,7 +2530,7 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="80"/>
+      <c r="J16" s="68"/>
       <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,7 +2548,7 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="81"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="70" t="s">
         <v>16</v>
       </c>
       <c r="K18" s="66">
@@ -2591,7 +2594,7 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="68"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
@@ -2611,7 +2614,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="68"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
@@ -2649,11 +2652,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
     </row>
     <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2977,22 +2980,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
     </row>
     <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3664,14 +3667,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3683,12 +3686,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="64"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4648,22 +4651,22 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="60" t="s">
+      <c r="B127" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="61"/>
-      <c r="D127" s="61"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+      <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="62"/>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="63"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="81"/>
+      <c r="D128" s="81"/>
+      <c r="E128" s="81"/>
+      <c r="F128" s="81"/>
+      <c r="G128" s="81"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -4951,22 +4954,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="60" t="s">
+      <c r="B142" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="61"/>
-      <c r="D142" s="61"/>
-      <c r="E142" s="61"/>
-      <c r="F142" s="61"/>
-      <c r="G142" s="61"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="62"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="81"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -5109,6 +5112,10 @@
       <c r="I149" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="J149">
+        <f>F157+F158</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="52" t="s">
@@ -5223,13 +5230,45 @@
       <c r="F156" s="13"/>
       <c r="G156" s="11"/>
     </row>
+    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13">
+        <v>10</v>
+      </c>
+      <c r="F157" s="13">
+        <v>15</v>
+      </c>
+      <c r="G157" s="11"/>
+    </row>
+    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13">
+        <v>1</v>
+      </c>
+      <c r="F158" s="13">
+        <v>1</v>
+      </c>
+      <c r="G158" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B142:G143"/>
+    <mergeCell ref="B127:G128"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
@@ -5237,11 +5276,11 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B142:G143"/>
-    <mergeCell ref="B127:G128"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6231,23 +6270,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6456,10 +6478,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6482,20 +6532,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>